--- a/sssssss.xlsx
+++ b/sssssss.xlsx
@@ -45,9 +45,6 @@
     <t>94/3, Palerpara,BRTC Gazipur,Chourasta,Gazipur</t>
   </si>
   <si>
-    <t>For,Welcome Accessories</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Total Due</t>
+  </si>
+  <si>
+    <t>Fr,Welcome Accessories</t>
   </si>
 </sst>
 </file>
@@ -392,6 +392,18 @@
     <xf numFmtId="2" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -418,18 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,44 +742,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="18.75">
-      <c r="A4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -797,7 +797,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="16"/>
@@ -823,10 +823,10 @@
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="23">
         <v>4100</v>
@@ -839,15 +839,15 @@
         <v>4428</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="23">
         <v>4100</v>
@@ -860,7 +860,7 @@
         <v>984.00000000000011</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -968,11 +968,11 @@
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="22">
         <f>SUM(E9:E20)</f>
         <v>5412</v>
@@ -980,20 +980,20 @@
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="22">
         <f>E21-E22</f>
         <v>5412</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="36">
         <v>5412</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="35">
         <v>37936</v>
@@ -1029,10 +1029,10 @@
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1">
-      <c r="A27" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="49">
+      <c r="A27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="40">
         <v>6000</v>
       </c>
       <c r="C27" s="8"/>
@@ -1040,10 +1040,10 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1">
-      <c r="A28" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="47">
+      <c r="A28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="38">
         <v>37348</v>
       </c>
       <c r="C28" s="8"/>
@@ -1066,14 +1066,14 @@
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E31" s="27"/>
     </row>
